--- a/deliverables/TestManagement_Enigma.xlsx
+++ b/deliverables/TestManagement_Enigma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matosjoa\Repositories\Test-Automation-Challenge\deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964FDA4-E85E-4351-99A2-3E10F4797B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4FD7E7-FAF7-4C03-804A-996F61B322B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9369385A-AA85-3E48-86A1-CD647024E629}"/>
+    <workbookView xWindow="-30828" yWindow="-1992" windowWidth="30936" windowHeight="17040" xr2:uid="{9369385A-AA85-3E48-86A1-CD647024E629}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="176">
   <si>
     <t>Page</t>
   </si>
@@ -309,13 +309,7 @@
     <t>Devices</t>
   </si>
   <si>
-    <t>Botoes</t>
-  </si>
-  <si>
     <t>Reports</t>
-  </si>
-  <si>
-    <t>Temos de ver como criar um report</t>
   </si>
   <si>
     <t>Add Device</t>
@@ -553,6 +547,115 @@
   </si>
   <si>
     <t>Create and delete a new &lt;type&gt; device from &lt;os&gt;</t>
+  </si>
+  <si>
+    <t>Number of Tests defined</t>
+  </si>
+  <si>
+    <t>% Automated</t>
+  </si>
+  <si>
+    <t>Total number of Tests</t>
+  </si>
+  <si>
+    <t>Tests Automated (%)</t>
+  </si>
+  <si>
+    <t>To be automated (%)</t>
+  </si>
+  <si>
+    <t>Vuttons</t>
+  </si>
+  <si>
+    <t>We don't were able to create reports</t>
+  </si>
+  <si>
+    <t>Check All Requests</t>
+  </si>
+  <si>
+    <t>Artifacts Requests</t>
+  </si>
+  <si>
+    <t>Assets Requests</t>
+  </si>
+  <si>
+    <t>Blobs Requests</t>
+  </si>
+  <si>
+    <t>BrowserSession Requests</t>
+  </si>
+  <si>
+    <t>Consoles Requests</t>
+  </si>
+  <si>
+    <t>Devices Requests</t>
+  </si>
+  <si>
+    <t>Projects Requests</t>
+  </si>
+  <si>
+    <t>Images Requests</t>
+  </si>
+  <si>
+    <t>Jobs Requests</t>
+  </si>
+  <si>
+    <t>Package Management Requests</t>
+  </si>
+  <si>
+    <t>Selenium Service Requests</t>
+  </si>
+  <si>
+    <t>Tags Requests</t>
+  </si>
+  <si>
+    <t>Test Management Requests</t>
+  </si>
+  <si>
+    <t>Users Requests</t>
+  </si>
+  <si>
+    <t>User Administration Requests</t>
+  </si>
+  <si>
+    <t>Some done indirectly by using the GUI [some manually other via automated tests]
+Some individuals tested Manually</t>
+  </si>
+  <si>
+    <t>Users without permissions</t>
+  </si>
+  <si>
+    <t>Business Transactions Requests</t>
+  </si>
+  <si>
+    <t>Out Of Scope</t>
+  </si>
+  <si>
+    <t>Check All Requests  [7 Requests]</t>
+  </si>
+  <si>
+    <t>Check All Requests [6 Requests]</t>
+  </si>
+  <si>
+    <t>Check All Requests  [3 Requests]</t>
+  </si>
+  <si>
+    <t>Check All Requests  [2 Requests]</t>
+  </si>
+  <si>
+    <t>Check All Requests  [11 Requests]</t>
+  </si>
+  <si>
+    <t>Check All Requests  [10 Requests]</t>
+  </si>
+  <si>
+    <t>Check All Requests  [6 Requests]</t>
+  </si>
+  <si>
+    <t>Check All Requests  [32 Requests]</t>
+  </si>
+  <si>
+    <t>Check All Requests  [40 Requests]</t>
   </si>
 </sst>
 </file>
@@ -604,7 +707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -801,6 +910,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,6 +937,842 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Automation Coverage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Coverage!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Tests Automated (%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>To be automated (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Coverage!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5D2A-41DE-913E-B55F91E72040}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1DA632-072A-4669-B432-D221357F4A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1117,9 +2074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1207DFF8-5D1E-48EF-8874-79BDCD0D8AD5}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1162,10 +2119,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1173,16 +2130,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2" s="25">
         <v>1</v>
@@ -1194,9 +2151,9 @@
       <c r="I2" s="25">
         <v>3</v>
       </c>
-      <c r="J2" s="14">
-        <f>IF(H3="Done",100%,H3)</f>
-        <v>1</v>
+      <c r="J2" s="22">
+        <f t="shared" ref="J2:J65" si="0">IF(H2="Out Of Scope","",IF(H2="Done",100%,H2)*I2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1225,9 +2182,9 @@
       <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="14">
-        <f>IF(H4="Done",100%,H4)</f>
-        <v>0.9</v>
+      <c r="J3" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1250,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="17">
         <v>0.9</v>
@@ -1258,9 +2215,9 @@
       <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="14">
-        <f t="shared" ref="J4:J66" si="0">IF(H4="Done",100%,H4)</f>
-        <v>0.9</v>
+      <c r="J4" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1291,9 +2248,9 @@
       <c r="I5" s="4">
         <v>3</v>
       </c>
-      <c r="J5" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J5" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1304,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>9</v>
@@ -1318,7 +2275,7 @@
       <c r="I6" s="8">
         <v>0</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1331,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>19</v>
@@ -1345,7 +2302,7 @@
       <c r="I7" s="8">
         <v>0</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1358,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
@@ -1372,7 +2329,7 @@
       <c r="I8" s="8">
         <v>0</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1385,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -1399,7 +2356,7 @@
       <c r="I9" s="8">
         <v>0</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1412,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>22</v>
@@ -1426,7 +2383,7 @@
       <c r="I10" s="8">
         <v>0</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1439,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>23</v>
@@ -1453,14 +2410,14 @@
       <c r="I11" s="8">
         <v>0</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>25</v>
@@ -1470,108 +2427,108 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5">
         <v>2</v>
       </c>
-      <c r="J12" s="14">
-        <f>IF(H12="Done",100%,H12)</f>
+      <c r="J12" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5">
         <v>5</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
         <v>2</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
         <v>1</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
@@ -1582,20 +2539,20 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
         <v>1</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
@@ -1607,7 +2564,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H17" s="17">
         <v>0.8</v>
@@ -1615,14 +2572,14 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="14">
-        <f>IF(H17="Done",100%,H17)</f>
+      <c r="J17" s="22">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
@@ -1636,7 +2593,7 @@
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H18" s="21">
         <v>0.3</v>
@@ -1644,14 +2601,14 @@
       <c r="I18" s="10">
         <v>3</v>
       </c>
-      <c r="J18" s="14">
-        <f>IF(H18="Done",100%,H18)</f>
-        <v>0.3</v>
+      <c r="J18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
@@ -1665,7 +2622,7 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H19" s="21">
         <v>0.3</v>
@@ -1673,14 +2630,14 @@
       <c r="I19" s="10">
         <v>1</v>
       </c>
-      <c r="J19" s="14">
-        <f>IF(H19="Done",100%,H19)</f>
+      <c r="J19" s="22">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
@@ -1694,7 +2651,7 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
         <v>0.3</v>
@@ -1702,14 +2659,14 @@
       <c r="I20" s="10">
         <v>1</v>
       </c>
-      <c r="J20" s="14">
-        <f>IF(H20="Done",100%,H20)</f>
+      <c r="J20" s="22">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
@@ -1723,7 +2680,7 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H21" s="21">
         <v>0.3</v>
@@ -1731,14 +2688,14 @@
       <c r="I21" s="10">
         <v>1</v>
       </c>
-      <c r="J21" s="14">
-        <f>IF(H21="Done",100%,H21)</f>
+      <c r="J21" s="22">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
@@ -1752,7 +2709,7 @@
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H22" s="21">
         <v>0.3</v>
@@ -1760,14 +2717,14 @@
       <c r="I22" s="10">
         <v>1</v>
       </c>
-      <c r="J22" s="14">
-        <f>IF(H22="Done",100%,H22)</f>
+      <c r="J22" s="22">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
@@ -1775,11 +2732,11 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H23" s="21">
         <v>0.3</v>
@@ -1787,9 +2744,9 @@
       <c r="I23" s="10">
         <v>5</v>
       </c>
-      <c r="J23" s="14">
-        <f>IF(H23="Done",100%,H23)</f>
-        <v>0.3</v>
+      <c r="J23" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1816,7 +2773,7 @@
       <c r="I24" s="4">
         <v>1</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1847,7 +2804,7 @@
       <c r="I25" s="4">
         <v>1</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1878,7 +2835,7 @@
       <c r="I26" s="4">
         <v>1</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1909,7 +2866,7 @@
       <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1940,9 +2897,9 @@
       <c r="I28" s="4">
         <v>4</v>
       </c>
-      <c r="J28" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J28" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1971,7 +2928,7 @@
       <c r="I29" s="4">
         <v>1</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1990,13 +2947,13 @@
         <v>35</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>13</v>
@@ -2004,9 +2961,9 @@
       <c r="I30" s="4">
         <v>4</v>
       </c>
-      <c r="J30" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J30" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -2021,7 +2978,7 @@
         <v>53</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -2033,7 +2990,7 @@
       <c r="I31" s="4">
         <v>1</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2062,14 +3019,14 @@
       <c r="I32" s="4">
         <v>1</v>
       </c>
-      <c r="J32" s="14">
-        <f>IF(H32="Done",100%,H32)</f>
+      <c r="J32" s="22">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>34</v>
@@ -2083,20 +3040,20 @@
         <v>2</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5">
         <v>1</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>34</v>
@@ -2112,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>13</v>
@@ -2127,25 +3084,25 @@
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>13</v>
@@ -2155,30 +3112,30 @@
       </c>
       <c r="J35" s="22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>13</v>
@@ -2188,28 +3145,28 @@
       </c>
       <c r="J36" s="22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="E37" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8">
@@ -2222,21 +3179,21 @@
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H38" s="21">
         <v>0.1</v>
@@ -2244,28 +3201,28 @@
       <c r="I38" s="10">
         <v>7</v>
       </c>
-      <c r="J38" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+      <c r="J38" s="22">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H39" s="21">
         <v>0.1</v>
@@ -2273,14 +3230,14 @@
       <c r="I39" s="10">
         <v>2</v>
       </c>
-      <c r="J39" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+      <c r="J39" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
@@ -2296,14 +3253,14 @@
       <c r="I40" s="5">
         <v>2</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>56</v>
@@ -2315,20 +3272,20 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>57</v>
@@ -2340,20 +3297,20 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5">
         <v>1</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>59</v>
@@ -2365,20 +3322,20 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5">
         <v>1</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>58</v>
@@ -2390,14 +3347,14 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
-      <c r="J44" s="14">
-        <f>IF(H44="Done",100%,H44)</f>
+      <c r="J44" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2416,10 +3373,10 @@
         <v>61</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="14">
+      <c r="J45" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2442,7 +3399,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="14">
+      <c r="J46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2458,14 +3415,14 @@
       <c r="D47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="14">
+      <c r="J47" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2481,14 +3438,14 @@
       <c r="D48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="14">
+      <c r="J48" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2504,14 +3461,14 @@
       <c r="D49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="14">
+      <c r="J49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2527,14 +3484,14 @@
       <c r="D50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="14">
+      <c r="J50" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2550,14 +3507,14 @@
       <c r="D51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="14">
+      <c r="J51" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2571,23 +3528,23 @@
         <v>10</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="14">
+      <c r="J52" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2597,14 +3554,14 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="14">
+      <c r="J53" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2614,14 +3571,14 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="14">
+      <c r="J54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2631,14 +3588,14 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="14">
+      <c r="J55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2648,14 +3605,14 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="14">
+      <c r="J56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
@@ -2667,14 +3624,14 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="14">
+      <c r="J57" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
@@ -2686,14 +3643,14 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="14">
+      <c r="J58" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2703,14 +3660,14 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="14">
+      <c r="J59" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2720,14 +3677,14 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="14">
+      <c r="J60" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
@@ -2739,14 +3696,14 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="14">
+      <c r="J61" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2756,14 +3713,14 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="14">
+      <c r="J62" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2773,14 +3730,14 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="14">
+      <c r="J63" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2790,14 +3747,14 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="14">
+      <c r="J64" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2807,14 +3764,14 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="14">
+      <c r="J65" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2824,14 +3781,14 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="14">
-        <f t="shared" si="0"/>
+      <c r="J66" s="22">
+        <f t="shared" ref="J66:J87" si="1">IF(H66="Out Of Scope","",IF(H66="Done",100%,H66)*I66)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2839,18 +3796,18 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="14">
-        <f t="shared" ref="J67:J103" si="1">IF(H67="Done",100%,H67)</f>
+      <c r="J67" s="22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2860,14 +3817,14 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="14">
+      <c r="J68" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2877,14 +3834,14 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="14">
+      <c r="J69" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2892,18 +3849,18 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="14">
+      <c r="J70" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2913,14 +3870,14 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="14">
+      <c r="J71" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2930,249 +3887,461 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="14">
+      <c r="J72" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="14">
+    <row r="73" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0</v>
+      </c>
+      <c r="J73" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="G76" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="14">
+      <c r="I76" s="5">
+        <v>11</v>
+      </c>
+      <c r="J76" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="14">
+    <row r="77" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I77" s="8">
+        <v>0</v>
+      </c>
+      <c r="J77" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="14">
+      <c r="I78" s="5">
+        <v>10</v>
+      </c>
+      <c r="J78" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+    <row r="79" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="14">
+      <c r="I79" s="5">
+        <v>25</v>
+      </c>
+      <c r="J79" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+    <row r="80" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="G80" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="14">
+      <c r="I80" s="29">
+        <v>5</v>
+      </c>
+      <c r="J80" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="14">
+      <c r="I81" s="5">
+        <v>6</v>
+      </c>
+      <c r="J81" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="19"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="14">
+    <row r="82" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8">
+        <v>0</v>
+      </c>
+      <c r="J82" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="14">
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I83" s="8">
+        <v>0</v>
+      </c>
+      <c r="J83" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I84" s="8">
+        <v>0</v>
+      </c>
+      <c r="J84" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I85" s="8">
+        <v>0</v>
+      </c>
+      <c r="J85" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I86" s="8">
+        <v>0</v>
+      </c>
+      <c r="J86" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I87" s="8">
+        <v>0</v>
+      </c>
+      <c r="J87" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="19"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A88" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I88" s="8">
+        <v>0</v>
+      </c>
+      <c r="J88" s="22" t="str">
+        <f>IF(H88="Out Of Scope","",IF(H88="Done",100%,H88)*I88)</f>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -3185,10 +4354,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J89" s="14"/>
     </row>
     <row r="90" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
@@ -3200,10 +4366,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J90" s="14"/>
     </row>
     <row r="91" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
@@ -3215,10 +4378,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
@@ -3230,10 +4390,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J92" s="14"/>
     </row>
     <row r="93" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
@@ -3245,10 +4402,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J93" s="14"/>
     </row>
     <row r="94" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
@@ -3260,10 +4414,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J94" s="14"/>
     </row>
     <row r="95" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
@@ -3275,10 +4426,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J95" s="14"/>
     </row>
     <row r="96" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
@@ -3290,10 +4438,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J96" s="14"/>
     </row>
     <row r="97" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
@@ -3305,10 +4450,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J97" s="14"/>
     </row>
     <row r="98" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
@@ -3320,10 +4462,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J98" s="14"/>
     </row>
     <row r="99" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
@@ -3335,10 +4474,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J99" s="14"/>
     </row>
     <row r="100" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
@@ -3350,10 +4486,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J100" s="14"/>
     </row>
     <row r="101" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
@@ -3365,10 +4498,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J101" s="14"/>
     </row>
     <row r="102" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
@@ -3380,16 +4510,19 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J103" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J102" s="14"/>
+    </row>
+    <row r="103" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="19"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3399,12 +4532,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E184C94-A6B9-4882-BEB9-7715D2341A4A}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="26">
+        <f>SUM('Test Cases'!I:I)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="27">
+        <f>(SUM('Test Cases'!J:J))</f>
+        <v>36.000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="27">
+        <f>D3-D4</f>
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/deliverables/TestManagement_Enigma.xlsx
+++ b/deliverables/TestManagement_Enigma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matosjoa\Repositories\Test-Automation-Challenge\deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4FD7E7-FAF7-4C03-804A-996F61B322B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBCCE70-EC00-4000-8CF1-FB741DE076BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-1992" windowWidth="30936" windowHeight="17040" xr2:uid="{9369385A-AA85-3E48-86A1-CD647024E629}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9369385A-AA85-3E48-86A1-CD647024E629}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="175">
   <si>
     <t>Page</t>
   </si>
@@ -306,18 +306,9 @@
 Upload Image</t>
   </si>
   <si>
-    <t>Devices</t>
-  </si>
-  <si>
     <t>Reports</t>
   </si>
   <si>
-    <t>Add Device</t>
-  </si>
-  <si>
-    <t>Remove Device</t>
-  </si>
-  <si>
     <t>Add Used Device</t>
   </si>
   <si>
@@ -357,9 +348,6 @@
     <t>Network browser log</t>
   </si>
   <si>
-    <t>Check if there are errors</t>
-  </si>
-  <si>
     <t>Double login in VM as well</t>
   </si>
   <si>
@@ -367,9 +355,6 @@
   </si>
   <si>
     <t>Active members in machines</t>
-  </si>
-  <si>
-    <t>Check BUG</t>
   </si>
   <si>
     <t>Tests running and generate new API KEY</t>
@@ -549,12 +534,6 @@
     <t>Create and delete a new &lt;type&gt; device from &lt;os&gt;</t>
   </si>
   <si>
-    <t>Number of Tests defined</t>
-  </si>
-  <si>
-    <t>% Automated</t>
-  </si>
-  <si>
     <t>Total number of Tests</t>
   </si>
   <si>
@@ -562,9 +541,6 @@
   </si>
   <si>
     <t>To be automated (%)</t>
-  </si>
-  <si>
-    <t>Vuttons</t>
   </si>
   <si>
     <t>We don't were able to create reports</t>
@@ -656,6 +632,29 @@
   </si>
   <si>
     <t>Check All Requests  [40 Requests]</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Checked some manually</t>
+  </si>
+  <si>
+    <t>Check if there are errors
+Checked some manually</t>
+  </si>
+  <si>
+    <t>Checked Manually
+Check BUG</t>
+  </si>
+  <si>
+    <t>GUI Tests</t>
+  </si>
+  <si>
+    <t>API Tests</t>
   </si>
 </sst>
 </file>
@@ -707,7 +706,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +746,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -919,7 +930,19 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,10 +1090,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>36.000000000000007</c:v>
+                  <c:v>47.400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>131.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,6 +1198,246 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Ratio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> GUI/API</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Coverage!$J$4:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GUI Tests</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>API Tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Coverage!$K$4:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21D8-4B75-8278-CF5FE60DB7EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1215,7 +1478,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1767,6 +2586,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4F3309-D371-4D81-B625-6D20E7B0B781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2072,11 +2927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1207DFF8-5D1E-48EF-8874-79BDCD0D8AD5}">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2119,10 +2974,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -2130,16 +2985,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F2" s="25">
         <v>1</v>
@@ -2152,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="22">
-        <f t="shared" ref="J2:J65" si="0">IF(H2="Out Of Scope","",IF(H2="Done",100%,H2)*I2)</f>
+        <f t="shared" ref="J2:J62" si="0">IF(H2="Out Of Scope","",IF(H2="Done",100%,H2)*I2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2207,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H4" s="17">
         <v>0.9</v>
@@ -2261,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>9</v>
@@ -2271,13 +3126,15 @@
       <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="I6" s="8">
         <v>0</v>
       </c>
-      <c r="J6" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="J6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2288,7 +3145,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>19</v>
@@ -2298,13 +3155,15 @@
       <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="I7" s="8">
         <v>0</v>
       </c>
-      <c r="J7" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="J7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2315,7 +3174,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
@@ -2325,13 +3184,15 @@
       <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="I8" s="8">
         <v>0</v>
       </c>
-      <c r="J8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="J8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2342,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -2352,13 +3213,15 @@
       <c r="G9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="I9" s="8">
         <v>0</v>
       </c>
-      <c r="J9" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="J9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2369,7 +3232,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>22</v>
@@ -2379,13 +3242,15 @@
       <c r="G10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="I10" s="8">
         <v>0</v>
       </c>
-      <c r="J10" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="J10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2396,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>23</v>
@@ -2406,18 +3271,20 @@
       <c r="G11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="I11" s="8">
         <v>0</v>
       </c>
-      <c r="J11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="J11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>25</v>
@@ -2427,11 +3294,11 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>109</v>
+      <c r="G12" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5">
@@ -2444,21 +3311,21 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>109</v>
+      <c r="G13" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5">
@@ -2471,21 +3338,21 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>109</v>
+      <c r="G14" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
@@ -2498,21 +3365,21 @@
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>109</v>
+      <c r="G15" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
@@ -2525,10 +3392,10 @@
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
@@ -2538,8 +3405,8 @@
         <v>26</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>109</v>
+      <c r="G16" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
@@ -2552,7 +3419,7 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
@@ -2564,7 +3431,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H17" s="17">
         <v>0.8</v>
@@ -2579,7 +3446,7 @@
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
@@ -2593,7 +3460,7 @@
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H18" s="21">
         <v>0.3</v>
@@ -2608,7 +3475,7 @@
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
@@ -2622,7 +3489,7 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H19" s="21">
         <v>0.3</v>
@@ -2637,7 +3504,7 @@
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
@@ -2651,7 +3518,7 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H20" s="21">
         <v>0.3</v>
@@ -2666,7 +3533,7 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
@@ -2680,7 +3547,7 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H21" s="21">
         <v>0.3</v>
@@ -2695,7 +3562,7 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
@@ -2709,7 +3576,7 @@
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H22" s="21">
         <v>0.3</v>
@@ -2724,7 +3591,7 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
@@ -2732,11 +3599,11 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H23" s="21">
         <v>0.3</v>
@@ -2947,13 +3814,13 @@
         <v>35</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>13</v>
@@ -2978,7 +3845,7 @@
         <v>53</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -3026,7 +3893,7 @@
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>34</v>
@@ -3039,8 +3906,8 @@
       <c r="F33" s="5">
         <v>2</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>118</v>
+      <c r="G33" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5">
@@ -3053,7 +3920,7 @@
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>34</v>
@@ -3069,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>13</v>
@@ -3084,25 +3951,25 @@
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>13</v>
@@ -3117,25 +3984,25 @@
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>13</v>
@@ -3150,23 +4017,23 @@
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8">
@@ -3179,21 +4046,21 @@
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H38" s="21">
         <v>0.1</v>
@@ -3208,21 +4075,21 @@
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H39" s="21">
         <v>0.1</v>
@@ -3237,7 +4104,7 @@
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
@@ -3260,7 +4127,7 @@
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>56</v>
@@ -3271,8 +4138,8 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>135</v>
+      <c r="G41" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5">
@@ -3285,7 +4152,7 @@
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>57</v>
@@ -3296,8 +4163,8 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>135</v>
+      <c r="G42" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5">
@@ -3310,7 +4177,7 @@
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>59</v>
@@ -3321,8 +4188,8 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>137</v>
+      <c r="G43" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5">
@@ -3335,7 +4202,7 @@
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>58</v>
@@ -3346,8 +4213,8 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>138</v>
+      <c r="G44" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5">
@@ -3373,9 +4240,13 @@
         <v>61</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5">
+        <v>8</v>
+      </c>
       <c r="J45" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3396,9 +4267,13 @@
         <v>63</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5">
+        <v>7</v>
+      </c>
       <c r="J46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3419,9 +4294,13 @@
         <v>66</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5">
+        <v>2</v>
+      </c>
       <c r="J47" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3442,9 +4321,13 @@
         <v>69</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="I48" s="5">
+        <v>7</v>
+      </c>
       <c r="J48" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3465,9 +4348,13 @@
         <v>71</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="G49" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="I49" s="5">
+        <v>2</v>
+      </c>
       <c r="J49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3488,9 +4375,13 @@
         <v>73</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="31" t="s">
+        <v>170</v>
+      </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="I50" s="5">
+        <v>3</v>
+      </c>
       <c r="J50" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3507,13 +4398,15 @@
       <c r="D51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
       <c r="J51" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3521,22 +4414,22 @@
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>146</v>
+      <c r="G52" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
       <c r="J52" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3547,13 +4440,19 @@
         <v>76</v>
       </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="G53" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
       <c r="J53" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3564,13 +4463,19 @@
         <v>77</v>
       </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
       <c r="J54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3581,13 +4486,17 @@
         <v>78</v>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
       <c r="J55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3598,13 +4507,17 @@
         <v>79</v>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
       <c r="J56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3623,7 +4536,9 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
       <c r="J57" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3640,9 +4555,13 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="31" t="s">
+        <v>170</v>
+      </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="I58" s="5">
+        <v>1</v>
+      </c>
       <c r="J58" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3653,13 +4572,19 @@
         <v>82</v>
       </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="G59" s="31" t="s">
+        <v>170</v>
+      </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
       <c r="J59" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3670,13 +4595,19 @@
         <v>83</v>
       </c>
       <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
       <c r="J60" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3688,14 +4619,16 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="I61" s="5">
+        <v>1</v>
+      </c>
       <c r="J61" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3706,13 +4639,17 @@
         <v>85</v>
       </c>
       <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="I62" s="5">
+        <v>1</v>
+      </c>
       <c r="J62" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3723,32 +4660,42 @@
         <v>86</v>
       </c>
       <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5">
+        <v>1</v>
+      </c>
       <c r="J63" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J63:J84" si="1">IF(H63="Out Of Scope","",IF(H63="Done",100%,H63)*I63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="G64" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
       <c r="J64" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3757,15 +4704,19 @@
         <v>88</v>
       </c>
       <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
       <c r="J65" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3774,32 +4725,40 @@
         <v>89</v>
       </c>
       <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
       <c r="J66" s="22">
-        <f t="shared" ref="J66:J87" si="1">IF(H66="Out Of Scope","",IF(H66="Done",100%,H66)*I66)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="5" t="s">
-        <v>91</v>
+      <c r="G67" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="I67" s="5">
+        <v>1</v>
+      </c>
       <c r="J67" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3807,16 +4766,20 @@
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
       <c r="J68" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3824,123 +4787,155 @@
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
       <c r="J69" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="22">
-        <f t="shared" si="1"/>
+      <c r="A70" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I73" s="8">
-        <v>0</v>
-      </c>
-      <c r="J73" s="22" t="str">
+      <c r="J70" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0</v>
+      </c>
+      <c r="J72" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I73" s="10">
+        <v>11</v>
+      </c>
+      <c r="J73" s="22">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F74" s="8"/>
-      <c r="G74" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="G74" s="8"/>
       <c r="H74" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I74" s="8">
         <v>0</v>
@@ -3951,245 +4946,245 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I75" s="8">
-        <v>0</v>
-      </c>
-      <c r="J75" s="22" t="str">
+      <c r="B75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H75" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I75" s="10">
+        <v>10</v>
+      </c>
+      <c r="J75" s="22">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5">
-        <v>11</v>
+      <c r="B76" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H76" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I76" s="10">
+        <v>25</v>
       </c>
       <c r="J76" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I77" s="8">
-        <v>0</v>
-      </c>
-      <c r="J77" s="22" t="str">
+      <c r="B77" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H77" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I77" s="30">
+        <v>5</v>
+      </c>
+      <c r="J77" s="22">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5" t="s">
+      <c r="B78" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5">
-        <v>10</v>
+      <c r="C78" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H78" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I78" s="10">
+        <v>6</v>
       </c>
       <c r="J78" s="22">
         <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5">
-        <v>25</v>
       </c>
       <c r="J79" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+    <row r="80" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5" t="s">
+      <c r="B80" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="29">
-        <v>5</v>
-      </c>
-      <c r="J80" s="22">
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I80" s="8">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I81" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5">
-        <v>6</v>
-      </c>
-      <c r="J81" s="22">
+      <c r="J81" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F82" s="8"/>
-      <c r="G82" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="I82" s="8">
         <v>0</v>
       </c>
-      <c r="J82" s="22">
+      <c r="J82" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F83" s="8"/>
-      <c r="G83" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="G83" s="8"/>
       <c r="H83" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I83" s="8">
         <v>0</v>
@@ -4199,26 +5194,24 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F84" s="8"/>
-      <c r="G84" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I84" s="8">
         <v>0</v>
@@ -4228,121 +5221,70 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I85" s="8">
         <v>0</v>
       </c>
       <c r="J85" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H85="Out Of Scope","",IF(H85="Done",100%,H85)*I85)</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I86" s="8">
-        <v>0</v>
-      </c>
-      <c r="J86" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I87" s="8">
-        <v>0</v>
-      </c>
-      <c r="J87" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+    <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="19"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="14"/>
+    </row>
+    <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="19"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="14"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I88" s="8">
-        <v>0</v>
-      </c>
-      <c r="J88" s="22" t="str">
-        <f>IF(H88="Out Of Scope","",IF(H88="Done",100%,H88)*I88)</f>
-        <v/>
-      </c>
+      <c r="A88" s="19"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="14"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
@@ -4488,42 +5430,6 @@
       <c r="I100" s="5"/>
       <c r="J100" s="14"/>
     </row>
-    <row r="101" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="19"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="19"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="14"/>
-    </row>
-    <row r="103" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="19"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4532,51 +5438,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E184C94-A6B9-4882-BEB9-7715D2341A4A}">
-  <dimension ref="C2:D5"/>
+  <dimension ref="C2:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.125" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="28" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" s="26" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D3" s="26">
         <f>SUM('Test Cases'!I:I)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="26">
+        <f>SUM('Test Cases'!I:I)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D4" s="27">
         <f>(SUM('Test Cases'!J:J))</f>
-        <v>36.000000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47.400000000000013</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="33">
+        <f>SUMIF('Test Cases'!C:C,"GUI",'Test Cases'!I:I)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D5" s="27">
         <f>D3-D4</f>
-        <v>95</v>
+        <v>131.6</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="33">
+        <f>SUMIF('Test Cases'!C:C,"API",'Test Cases'!I:I)</f>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/deliverables/TestManagement_Enigma.xlsx
+++ b/deliverables/TestManagement_Enigma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matosjoa\Repositories\Test-Automation-Challenge\deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBCCE70-EC00-4000-8CF1-FB741DE076BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676B247A-028A-4358-A797-044C7F8F67BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9369385A-AA85-3E48-86A1-CD647024E629}"/>
   </bookViews>
@@ -537,12 +537,6 @@
     <t>Total number of Tests</t>
   </si>
   <si>
-    <t>Tests Automated (%)</t>
-  </si>
-  <si>
-    <t>To be automated (%)</t>
-  </si>
-  <si>
     <t>We don't were able to create reports</t>
   </si>
   <si>
@@ -655,6 +649,12 @@
   </si>
   <si>
     <t>API Tests</t>
+  </si>
+  <si>
+    <t>Tests Automated</t>
+  </si>
+  <si>
+    <t>To be automated</t>
   </si>
 </sst>
 </file>
@@ -983,11 +983,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1015,11 +1015,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1046,13 +1046,22 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D96D-4841-9C4C-95450C01FA64}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1061,24 +1070,104 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D96D-4841-9C4C-95450C01FA64}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Coverage!$C$4:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Tests Automated (%)</c:v>
+                  <c:v>Tests Automated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>To be automated (%)</c:v>
+                  <c:v>To be automated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1105,11 +1194,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1124,10 +1214,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1137,12 +1232,12 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1166,14 +1261,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1219,11 +1330,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1233,11 +1344,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>Ratio</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> GUI/API</a:t>
+              <a:t>Ratio GUI/API</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1255,11 +1362,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1286,13 +1393,22 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FB24-41BA-B0AB-DD5626E6B688}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1301,14 +1417,94 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FB24-41BA-B0AB-DD5626E6B688}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Coverage!$J$4:$J$5</c:f>
@@ -1345,11 +1541,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1364,10 +1561,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1380,9 +1582,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1406,14 +1608,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1516,58 +1734,74 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1580,73 +1814,110 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1656,37 +1927,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1694,7 +1965,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1710,21 +1981,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1734,23 +2003,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1759,17 +2027,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1778,12 +2046,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1797,30 +2065,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1830,17 +2104,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1849,17 +2134,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1868,17 +2153,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1887,27 +2171,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1915,11 +2207,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1927,14 +2230,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1946,12 +2249,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1960,14 +2263,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1976,9 +2278,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1988,20 +2290,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2010,11 +2311,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2022,71 +2328,81 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2099,73 +2415,110 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -2175,37 +2528,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2213,7 +2566,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2229,21 +2582,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2253,23 +2604,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2278,17 +2628,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2297,12 +2647,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2316,30 +2666,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2349,17 +2705,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2368,17 +2735,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2387,17 +2754,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2406,27 +2772,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2434,11 +2808,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2446,14 +2831,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2465,12 +2850,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2479,14 +2864,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2495,9 +2879,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2507,20 +2891,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2529,11 +2912,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2541,14 +2929,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2557,16 +2939,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501015</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2593,16 +2975,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
+      <xdr:colOff>14287</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3127,7 +3509,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -3156,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -3185,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I8" s="8">
         <v>0</v>
@@ -3214,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
@@ -3243,7 +3625,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -3272,7 +3654,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
@@ -4241,7 +4623,7 @@
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5">
@@ -4376,7 +4758,7 @@
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5">
@@ -4401,7 +4783,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5">
@@ -4556,7 +4938,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5">
@@ -4579,7 +4961,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5">
@@ -4688,7 +5070,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5">
@@ -4753,7 +5135,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5">
@@ -4813,19 +5195,19 @@
         <v>28</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I70" s="8">
         <v>0</v>
@@ -4840,19 +5222,19 @@
         <v>28</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I71" s="8">
         <v>0</v>
@@ -4867,19 +5249,19 @@
         <v>28</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I72" s="8">
         <v>0</v>
@@ -4894,18 +5276,18 @@
         <v>28</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H73" s="21">
         <v>0.2</v>
@@ -4923,19 +5305,19 @@
         <v>28</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I74" s="8">
         <v>0</v>
@@ -4950,18 +5332,18 @@
         <v>28</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H75" s="21">
         <v>0.2</v>
@@ -4979,18 +5361,18 @@
         <v>28</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H76" s="21">
         <v>0.2</v>
@@ -5008,18 +5390,18 @@
         <v>28</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H77" s="21">
         <v>0.2</v>
@@ -5037,18 +5419,18 @@
         <v>28</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H78" s="21">
         <v>0.2</v>
@@ -5066,14 +5448,14 @@
         <v>28</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -5091,19 +5473,19 @@
         <v>28</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I80" s="8">
         <v>0</v>
@@ -5118,19 +5500,19 @@
         <v>28</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I81" s="8">
         <v>0</v>
@@ -5145,19 +5527,19 @@
         <v>28</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I82" s="8">
         <v>0</v>
@@ -5172,19 +5554,19 @@
         <v>28</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I83" s="8">
         <v>0</v>
@@ -5199,19 +5581,19 @@
         <v>28</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I84" s="8">
         <v>0</v>
@@ -5226,21 +5608,21 @@
         <v>28</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="I85" s="8">
         <v>0</v>
@@ -5441,7 +5823,7 @@
   <dimension ref="C2:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5454,16 +5836,16 @@
   <sheetData>
     <row r="2" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
@@ -5484,14 +5866,14 @@
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D4" s="27">
         <f>(SUM('Test Cases'!J:J))</f>
         <v>47.400000000000013</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K4" s="33">
         <f>SUMIF('Test Cases'!C:C,"GUI",'Test Cases'!I:I)</f>
@@ -5500,14 +5882,14 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="D5" s="27">
         <f>D3-D4</f>
         <v>131.6</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K5" s="33">
         <f>SUMIF('Test Cases'!C:C,"API",'Test Cases'!I:I)</f>
